--- a/PowerAppEstimationTool.xlsx
+++ b/PowerAppEstimationTool.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/a56335a984575986/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="223" documentId="8_{B9194FF8-25EC-44AE-B0D2-3C6BF49CA233}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{40753DF5-9609-4D49-8CBD-048BD34187F3}"/>
+  <xr:revisionPtr revIDLastSave="230" documentId="8_{B9194FF8-25EC-44AE-B0D2-3C6BF49CA233}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5A2D3146-7EDD-4B10-A3AB-FF99DD2136BF}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{9391C283-1276-4B1C-964F-6FB0D92F3B48}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{9391C283-1276-4B1C-964F-6FB0D92F3B48}"/>
   </bookViews>
   <sheets>
     <sheet name="Estimation Tool" sheetId="1" r:id="rId1"/>
@@ -103,10 +103,11 @@
     <t>Per user/month</t>
   </si>
   <si>
-    <t>Request Allocation/24 Hours</t>
-  </si>
-  <si>
     <t>Allocated Requests per 24 Hours</t>
+  </si>
+  <si>
+    <t>License Request Allocation/24 Hours
+(all API requests to connectors and Microsoft Dataverse)</t>
   </si>
 </sst>
 </file>
@@ -114,8 +115,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
-    <numFmt numFmtId="165" formatCode="0.000000"/>
-    <numFmt numFmtId="166" formatCode="0.00000000"/>
+    <numFmt numFmtId="164" formatCode="0.000000"/>
+    <numFmt numFmtId="165" formatCode="0.00000000"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -452,15 +453,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -483,7 +483,7 @@
     <xf numFmtId="3" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
@@ -502,14 +502,11 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
@@ -517,6 +514,9 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -833,8 +833,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{24436BB7-E10A-4AEE-B8B4-D2FC822E57B2}">
   <dimension ref="B1:H10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -844,134 +844,134 @@
     <col min="4" max="4" width="34.44140625" customWidth="1"/>
     <col min="5" max="5" width="28.88671875" customWidth="1"/>
     <col min="6" max="6" width="27.109375" customWidth="1"/>
-    <col min="7" max="7" width="27.77734375" customWidth="1"/>
+    <col min="7" max="7" width="49.44140625" customWidth="1"/>
     <col min="8" max="8" width="10.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="2:8" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="7">
+      <c r="C2" s="6">
         <v>50</v>
       </c>
     </row>
     <row r="3" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="9">
+      <c r="C3" s="8">
         <v>25</v>
       </c>
     </row>
     <row r="4" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B4" s="8" t="s">
+      <c r="B4" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="9">
+      <c r="C4" s="8">
         <v>40</v>
       </c>
     </row>
     <row r="5" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="10" t="s">
+      <c r="B5" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="11">
+      <c r="C5" s="10">
         <v>3</v>
       </c>
     </row>
     <row r="6" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C6" s="1"/>
     </row>
-    <row r="7" spans="2:8" s="4" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B7" s="25"/>
-      <c r="C7" s="21"/>
-      <c r="D7" s="19" t="s">
+    <row r="7" spans="2:8" s="3" customFormat="1" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B7" s="24"/>
+      <c r="C7" s="20"/>
+      <c r="D7" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="E7" s="19" t="s">
+      <c r="E7" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="F7" s="19" t="s">
+      <c r="F7" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="G7" s="20" t="s">
-        <v>21</v>
+      <c r="G7" s="38" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="8" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B8" s="26" t="s">
+      <c r="B8" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="C8" s="22" t="str">
+      <c r="C8" s="21" t="str">
         <f>DOLLAR((C2 * Variables!C3) + IF((C3 - D8)&gt;0,(C3-D8)*Variables!C13,0) + IF((C4 - E8)&gt;0,(C4-E8)*Variables!C14,0) + IF((C5 - F8)&gt;0,(C5-F8)*Variables!C15,0)) &amp; " /month"</f>
         <v>$1,121.72 /month</v>
       </c>
-      <c r="D8" s="16">
+      <c r="D8" s="15">
         <f>Variables!C5 + (C2*Variables!C9)</f>
         <v>22.20703125</v>
       </c>
-      <c r="E8" s="17">
+      <c r="E8" s="16">
         <f>Variables!C6 + (C2*Variables!C10)</f>
         <v>120</v>
       </c>
-      <c r="F8" s="17">
+      <c r="F8" s="16">
         <f>Variables!C7 + (C2*Variables!C11)</f>
         <v>2</v>
       </c>
-      <c r="G8" s="18">
+      <c r="G8" s="17">
         <f>C2*Variables!C17</f>
         <v>2000000</v>
       </c>
-      <c r="H8" s="5"/>
+      <c r="H8" s="4"/>
     </row>
     <row r="9" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B9" s="27" t="s">
+      <c r="B9" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="C9" s="23" t="str">
+      <c r="C9" s="22" t="str">
         <f>DOLLAR((C2 * Variables!D3) + IF((C3 - D9)&gt;0,(C3-D9)*Variables!D13,0) + IF((C4 - E9)&gt;0,(C4-E9)*Variables!D14,0) + IF((C5 - F9)&gt;0,(C5-F9)*Variables!D15,0)) &amp; " /month"</f>
         <v>$963.28 /month</v>
       </c>
-      <c r="D9" s="12">
+      <c r="D9" s="11">
         <f>Variables!D5 + (C2*Variables!D9)</f>
         <v>7.44140625</v>
       </c>
-      <c r="E9" s="12">
+      <c r="E9" s="11">
         <f>Variables!D6 + (C2*Variables!D10)</f>
         <v>39.53125</v>
       </c>
-      <c r="F9" s="12">
+      <c r="F9" s="11">
         <f>Variables!D7 + (C2*Variables!D11)</f>
         <v>2</v>
       </c>
-      <c r="G9" s="13">
+      <c r="G9" s="12">
         <f>C2*Variables!D17</f>
         <v>300000</v>
       </c>
     </row>
     <row r="10" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B10" s="28" t="s">
+      <c r="B10" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="C10" s="24" t="str">
+      <c r="C10" s="23" t="str">
         <f>DOLLAR((C2 * Variables!E3) + IF((C3 - D10)&gt;0,(C3-D10)*Variables!E13,0) + IF((C4 - E10)&gt;0,(C4-E10)*Variables!E14,0) + IF((C5 - F10)&gt;0,(C5-F10)*Variables!E15,0)) &amp; " /month"</f>
         <v>$1,781.60 /month</v>
       </c>
-      <c r="D10" s="14">
+      <c r="D10" s="13">
         <f>Variables!E5 + (C2*Variables!E9)</f>
         <v>1</v>
       </c>
-      <c r="E10" s="14">
+      <c r="E10" s="13">
         <f>Variables!E6 + (C2*Variables!E10)</f>
         <v>1</v>
       </c>
-      <c r="F10" s="14">
+      <c r="F10" s="13">
         <f>Variables!E7 + (C2*Variables!E11)</f>
         <v>0</v>
       </c>
-      <c r="G10" s="15">
+      <c r="G10" s="14">
         <f>C2*Variables!E17</f>
         <v>300000</v>
       </c>
@@ -985,209 +985,209 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE06415D-C057-4987-8F91-8E49AE766163}">
   <dimension ref="B1:E17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="60" style="4" customWidth="1"/>
+    <col min="2" max="2" width="60" style="3" customWidth="1"/>
     <col min="3" max="3" width="20.44140625" customWidth="1"/>
     <col min="4" max="4" width="20.88671875" customWidth="1"/>
     <col min="5" max="5" width="30.77734375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="2" spans="2:5" s="4" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="25"/>
-      <c r="C2" s="21" t="s">
+    <row r="2" spans="2:5" s="3" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B2" s="24"/>
+      <c r="C2" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="19" t="s">
+      <c r="D2" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="20" t="s">
+      <c r="E2" s="19" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="3" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B3" s="38" t="s">
+      <c r="B3" s="34" t="s">
         <v>20</v>
       </c>
-      <c r="C3" s="34">
+      <c r="C3" s="31">
         <v>20</v>
       </c>
-      <c r="D3" s="17">
+      <c r="D3" s="16">
         <v>5</v>
       </c>
-      <c r="E3" s="33">
+      <c r="E3" s="30">
         <v>10</v>
       </c>
     </row>
     <row r="4" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B4" s="39"/>
-      <c r="C4" s="35"/>
-      <c r="D4" s="12"/>
-      <c r="E4" s="30"/>
+      <c r="B4" s="35"/>
+      <c r="C4" s="32"/>
+      <c r="D4" s="11"/>
+      <c r="E4" s="28"/>
     </row>
     <row r="5" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B5" s="39" t="s">
+      <c r="B5" s="35" t="s">
         <v>17</v>
       </c>
-      <c r="C5" s="35">
+      <c r="C5" s="32">
         <v>10</v>
       </c>
-      <c r="D5" s="12">
+      <c r="D5" s="11">
         <v>5</v>
       </c>
-      <c r="E5" s="30">
+      <c r="E5" s="28">
         <v>1</v>
       </c>
     </row>
     <row r="6" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B6" s="39" t="s">
+      <c r="B6" s="35" t="s">
         <v>18</v>
       </c>
-      <c r="C6" s="35">
+      <c r="C6" s="32">
         <v>20</v>
       </c>
-      <c r="D6" s="12">
+      <c r="D6" s="11">
         <v>20</v>
       </c>
-      <c r="E6" s="30">
+      <c r="E6" s="28">
         <v>1</v>
       </c>
     </row>
     <row r="7" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B7" s="39" t="s">
+      <c r="B7" s="35" t="s">
         <v>19</v>
       </c>
-      <c r="C7" s="35">
+      <c r="C7" s="32">
         <v>2</v>
       </c>
-      <c r="D7" s="12">
+      <c r="D7" s="11">
         <v>2</v>
       </c>
-      <c r="E7" s="30">
+      <c r="E7" s="28">
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B8" s="39"/>
-      <c r="C8" s="35"/>
-      <c r="D8" s="12"/>
-      <c r="E8" s="30"/>
-    </row>
-    <row r="9" spans="2:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="40" t="s">
+      <c r="B8" s="35"/>
+      <c r="C8" s="32"/>
+      <c r="D8" s="11"/>
+      <c r="E8" s="28"/>
+    </row>
+    <row r="9" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B9" s="36" t="s">
         <v>13</v>
       </c>
-      <c r="C9" s="36">
+      <c r="C9" s="32">
         <f>250/1024</f>
         <v>0.244140625</v>
       </c>
-      <c r="D9" s="29">
+      <c r="D9" s="11">
         <f>50/1024</f>
         <v>4.8828125E-2</v>
       </c>
-      <c r="E9" s="31">
+      <c r="E9" s="28">
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="2:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="40" t="s">
+    <row r="10" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B10" s="36" t="s">
         <v>15</v>
       </c>
-      <c r="C10" s="36">
+      <c r="C10" s="32">
         <v>2</v>
       </c>
-      <c r="D10" s="29">
+      <c r="D10" s="11">
         <f>400/1024</f>
         <v>0.390625</v>
       </c>
-      <c r="E10" s="31">
+      <c r="E10" s="28">
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="2:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="40" t="s">
+    <row r="11" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B11" s="36" t="s">
         <v>16</v>
       </c>
-      <c r="C11" s="36">
+      <c r="C11" s="32">
         <v>0</v>
       </c>
-      <c r="D11" s="29">
+      <c r="D11" s="11">
         <v>0</v>
       </c>
-      <c r="E11" s="31">
+      <c r="E11" s="28">
         <v>0</v>
       </c>
     </row>
     <row r="12" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B12" s="39"/>
-      <c r="C12" s="35"/>
-      <c r="D12" s="12"/>
-      <c r="E12" s="30"/>
+      <c r="B12" s="35"/>
+      <c r="C12" s="32"/>
+      <c r="D12" s="11"/>
+      <c r="E12" s="28"/>
     </row>
     <row r="13" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B13" s="40" t="s">
+      <c r="B13" s="36" t="s">
         <v>10</v>
       </c>
-      <c r="C13" s="35">
+      <c r="C13" s="32">
         <v>40</v>
       </c>
-      <c r="D13" s="12">
+      <c r="D13" s="11">
         <v>40</v>
       </c>
-      <c r="E13" s="30">
+      <c r="E13" s="28">
         <v>48</v>
       </c>
     </row>
     <row r="14" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B14" s="40" t="s">
+      <c r="B14" s="36" t="s">
         <v>11</v>
       </c>
-      <c r="C14" s="35">
+      <c r="C14" s="32">
         <v>2</v>
       </c>
-      <c r="D14" s="12">
+      <c r="D14" s="11">
         <v>2</v>
       </c>
-      <c r="E14" s="30">
+      <c r="E14" s="28">
         <v>2.4</v>
       </c>
     </row>
     <row r="15" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B15" s="40" t="s">
+      <c r="B15" s="36" t="s">
         <v>12</v>
       </c>
-      <c r="C15" s="35">
+      <c r="C15" s="32">
         <v>10</v>
       </c>
-      <c r="D15" s="12">
+      <c r="D15" s="11">
         <v>10</v>
       </c>
-      <c r="E15" s="30">
+      <c r="E15" s="28">
         <v>12</v>
       </c>
     </row>
     <row r="16" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B16" s="39"/>
-      <c r="C16" s="35"/>
-      <c r="D16" s="12"/>
-      <c r="E16" s="30"/>
+      <c r="B16" s="35"/>
+      <c r="C16" s="32"/>
+      <c r="D16" s="11"/>
+      <c r="E16" s="28"/>
     </row>
     <row r="17" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B17" s="41" t="s">
-        <v>22</v>
-      </c>
-      <c r="C17" s="37">
+      <c r="B17" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="C17" s="33">
         <v>40000</v>
       </c>
-      <c r="D17" s="14">
+      <c r="D17" s="13">
         <v>6000</v>
       </c>
-      <c r="E17" s="32">
+      <c r="E17" s="29">
         <v>6000</v>
       </c>
     </row>

--- a/PowerAppEstimationTool.xlsx
+++ b/PowerAppEstimationTool.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/a56335a984575986/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="230" documentId="8_{B9194FF8-25EC-44AE-B0D2-3C6BF49CA233}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5A2D3146-7EDD-4B10-A3AB-FF99DD2136BF}"/>
+  <xr:revisionPtr revIDLastSave="242" documentId="8_{B9194FF8-25EC-44AE-B0D2-3C6BF49CA233}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4CF0F8F2-74F3-4D83-A7B6-162E27E16185}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{9391C283-1276-4B1C-964F-6FB0D92F3B48}"/>
   </bookViews>
@@ -17,6 +17,7 @@
     <sheet name="Variables" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="25">
   <si>
     <t>Power Apps Premium</t>
   </si>
@@ -70,15 +71,6 @@
     <t>Dataverse Log Usage (GBs)</t>
   </si>
   <si>
-    <t>Dataverse Database Capacity add-on per month per GB</t>
-  </si>
-  <si>
-    <t>Dataverse File Capacity add-on per month per GB</t>
-  </si>
-  <si>
-    <t>Dataverse Log Capacity add-on per month per GB</t>
-  </si>
-  <si>
     <t>Dataverse Database capacity accrued per user/month (GBs)</t>
   </si>
   <si>
@@ -98,9 +90,6 @@
   </si>
   <si>
     <t>Default Dataverse Log capacity per tenant</t>
-  </si>
-  <si>
-    <t>Per user/month</t>
   </si>
   <si>
     <t>Allocated Requests per 24 Hours</t>
@@ -108,6 +97,24 @@
   <si>
     <t>License Request Allocation/24 Hours
 (all API requests to connectors and Microsoft Dataverse)</t>
+  </si>
+  <si>
+    <t>Cost per user/month</t>
+  </si>
+  <si>
+    <t>Dataverse Database Capacity add-on cost per month per GB</t>
+  </si>
+  <si>
+    <t>Dataverse File Capacity add-on cost per month per GB</t>
+  </si>
+  <si>
+    <t>Dataverse Log Capacity add-on cost per month per GB</t>
+  </si>
+  <si>
+    <t>License Model</t>
+  </si>
+  <si>
+    <t>Cost</t>
   </si>
 </sst>
 </file>
@@ -532,6 +539,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -834,7 +845,7 @@
   <dimension ref="B1:H10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -861,32 +872,30 @@
       <c r="B3" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="8">
-        <v>25</v>
-      </c>
+      <c r="C3" s="8"/>
     </row>
     <row r="4" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B4" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="8">
-        <v>40</v>
-      </c>
+      <c r="C4" s="8"/>
     </row>
     <row r="5" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B5" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="10">
-        <v>3</v>
-      </c>
+      <c r="C5" s="10"/>
     </row>
     <row r="6" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C6" s="1"/>
     </row>
-    <row r="7" spans="2:8" s="3" customFormat="1" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B7" s="24"/>
-      <c r="C7" s="20"/>
+    <row r="7" spans="2:8" s="3" customFormat="1" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B7" s="24" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" s="20" t="s">
+        <v>24</v>
+      </c>
       <c r="D7" s="18" t="s">
         <v>4</v>
       </c>
@@ -897,7 +906,7 @@
         <v>5</v>
       </c>
       <c r="G7" s="38" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
     </row>
     <row r="8" spans="2:8" x14ac:dyDescent="0.3">
@@ -906,7 +915,7 @@
       </c>
       <c r="C8" s="21" t="str">
         <f>DOLLAR((C2 * Variables!C3) + IF((C3 - D8)&gt;0,(C3-D8)*Variables!C13,0) + IF((C4 - E8)&gt;0,(C4-E8)*Variables!C14,0) + IF((C5 - F8)&gt;0,(C5-F8)*Variables!C15,0)) &amp; " /month"</f>
-        <v>$1,121.72 /month</v>
+        <v>$1,000.00 /month</v>
       </c>
       <c r="D8" s="15">
         <f>Variables!C5 + (C2*Variables!C9)</f>
@@ -932,7 +941,7 @@
       </c>
       <c r="C9" s="22" t="str">
         <f>DOLLAR((C2 * Variables!D3) + IF((C3 - D9)&gt;0,(C3-D9)*Variables!D13,0) + IF((C4 - E9)&gt;0,(C4-E9)*Variables!D14,0) + IF((C5 - F9)&gt;0,(C5-F9)*Variables!D15,0)) &amp; " /month"</f>
-        <v>$963.28 /month</v>
+        <v>$250.00 /month</v>
       </c>
       <c r="D9" s="11">
         <f>Variables!D5 + (C2*Variables!D9)</f>
@@ -957,7 +966,7 @@
       </c>
       <c r="C10" s="23" t="str">
         <f>DOLLAR((C2 * Variables!E3) + IF((C3 - D10)&gt;0,(C3-D10)*Variables!E13,0) + IF((C4 - E10)&gt;0,(C4-E10)*Variables!E14,0) + IF((C5 - F10)&gt;0,(C5-F10)*Variables!E15,0)) &amp; " /month"</f>
-        <v>$1,781.60 /month</v>
+        <v>$500.00 /month</v>
       </c>
       <c r="D10" s="13">
         <f>Variables!E5 + (C2*Variables!E9)</f>
@@ -986,7 +995,7 @@
   <dimension ref="B1:E17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1007,12 +1016,12 @@
         <v>1</v>
       </c>
       <c r="E2" s="19" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B3" s="34" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C3" s="31">
         <v>20</v>
@@ -1032,7 +1041,7 @@
     </row>
     <row r="5" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B5" s="35" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C5" s="32">
         <v>10</v>
@@ -1046,7 +1055,7 @@
     </row>
     <row r="6" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B6" s="35" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C6" s="32">
         <v>20</v>
@@ -1060,7 +1069,7 @@
     </row>
     <row r="7" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B7" s="35" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C7" s="32">
         <v>2</v>
@@ -1080,7 +1089,7 @@
     </row>
     <row r="9" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B9" s="36" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C9" s="32">
         <f>250/1024</f>
@@ -1096,7 +1105,7 @@
     </row>
     <row r="10" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B10" s="36" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C10" s="32">
         <v>2</v>
@@ -1111,7 +1120,7 @@
     </row>
     <row r="11" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B11" s="36" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C11" s="32">
         <v>0</v>
@@ -1131,7 +1140,7 @@
     </row>
     <row r="13" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B13" s="36" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="C13" s="32">
         <v>40</v>
@@ -1145,7 +1154,7 @@
     </row>
     <row r="14" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B14" s="36" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="C14" s="32">
         <v>2</v>
@@ -1159,7 +1168,7 @@
     </row>
     <row r="15" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B15" s="36" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="C15" s="32">
         <v>10</v>
@@ -1179,7 +1188,7 @@
     </row>
     <row r="17" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B17" s="37" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="C17" s="33">
         <v>40000</v>
